--- a/BackTest/2019-10-28 BackTest LTC.xlsx
+++ b/BackTest/2019-10-28 BackTest LTC.xlsx
@@ -1291,17 +1291,13 @@
         <v>66100</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K26" t="n">
-        <v>66100</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1330,22 +1326,14 @@
         <v>66100</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K27" t="n">
-        <v>66100</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1373,22 +1361,14 @@
         <v>66166.66666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K28" t="n">
-        <v>66100</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1416,17 +1396,13 @@
         <v>66233.33333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K29" t="n">
-        <v>66300</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1455,22 +1431,14 @@
         <v>66233.33333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K30" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1498,22 +1466,14 @@
         <v>66133.33333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>66000</v>
-      </c>
-      <c r="K31" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1541,22 +1501,14 @@
         <v>66016.66666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>66050</v>
-      </c>
-      <c r="K32" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1584,22 +1536,14 @@
         <v>65950</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>65900</v>
-      </c>
-      <c r="K33" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1627,22 +1571,14 @@
         <v>65983.33333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K34" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1670,22 +1606,14 @@
         <v>66050</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K35" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1713,22 +1641,14 @@
         <v>66133.33333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>66200</v>
-      </c>
-      <c r="K36" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1756,22 +1676,14 @@
         <v>66133.33333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>66150</v>
-      </c>
-      <c r="K37" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1799,22 +1711,14 @@
         <v>66116.66666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K38" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1746,14 @@
         <v>66083.33333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K39" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1885,22 +1781,14 @@
         <v>66083.33333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K40" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1928,22 +1816,14 @@
         <v>66083.33333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K41" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1971,22 +1851,14 @@
         <v>66100</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K42" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2014,22 +1886,14 @@
         <v>66100</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K43" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2057,22 +1921,14 @@
         <v>66133.33333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K44" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2100,22 +1956,14 @@
         <v>66133.33333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>66150</v>
-      </c>
-      <c r="K45" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2143,22 +1991,14 @@
         <v>66133.33333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>66100</v>
-      </c>
-      <c r="K46" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2186,22 +2026,14 @@
         <v>66050</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>66000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2229,22 +2061,14 @@
         <v>66000</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>65950</v>
-      </c>
-      <c r="K48" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2272,22 +2096,14 @@
         <v>65983.33333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>66050</v>
-      </c>
-      <c r="K49" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2315,22 +2131,14 @@
         <v>66066.66666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>66200</v>
-      </c>
-      <c r="K50" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2166,14 @@
         <v>66183.33333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K51" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2401,22 +2201,14 @@
         <v>66300</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K52" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2444,22 +2236,14 @@
         <v>66366.66666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>66500</v>
-      </c>
-      <c r="K53" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2487,22 +2271,14 @@
         <v>66366.66666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K54" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2530,22 +2306,14 @@
         <v>66333.33333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K55" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2573,22 +2341,14 @@
         <v>66300</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K56" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2616,22 +2376,14 @@
         <v>66300</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>66300</v>
-      </c>
-      <c r="K57" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2659,22 +2411,14 @@
         <v>66333.33333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K58" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2702,22 +2446,14 @@
         <v>66450</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>66650</v>
-      </c>
-      <c r="K59" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2745,22 +2481,14 @@
         <v>66566.66666666667</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>66650</v>
-      </c>
-      <c r="K60" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2788,22 +2516,14 @@
         <v>66733.33333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>66800</v>
-      </c>
-      <c r="K61" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2831,22 +2551,14 @@
         <v>66800</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>66850</v>
-      </c>
-      <c r="K62" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2874,22 +2586,14 @@
         <v>66816.66666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>66700</v>
-      </c>
-      <c r="K63" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2917,22 +2621,14 @@
         <v>66750</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>66700</v>
-      </c>
-      <c r="K64" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2960,22 +2656,14 @@
         <v>66700</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>66700</v>
-      </c>
-      <c r="K65" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3003,22 +2691,14 @@
         <v>66716.66666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>66750</v>
-      </c>
-      <c r="K66" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3046,22 +2726,14 @@
         <v>66750</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>66800</v>
-      </c>
-      <c r="K67" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3089,22 +2761,14 @@
         <v>66783.33333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>66800</v>
-      </c>
-      <c r="K68" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3138,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3179,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3220,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3261,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3343,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3384,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3425,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3466,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3507,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3548,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3589,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3630,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3671,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3712,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3753,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3794,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3835,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3917,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3958,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3999,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4040,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4081,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4122,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4163,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4204,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4245,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4286,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4327,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4368,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4409,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4450,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4491,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4532,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4614,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4655,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4696,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4737,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4778,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4819,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4860,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4901,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4942,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4983,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5024,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5065,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5147,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5188,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5229,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5270,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5311,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5352,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5434,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5475,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5516,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5557,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5598,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5639,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5680,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5721,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5762,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5803,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5844,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5885,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5926,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5967,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6008,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6046,19 +5284,13 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>66300</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>1.046282051282051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -6087,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -6157,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -6192,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6227,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -6262,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6332,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6402,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -8467,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -8502,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -8537,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -9272,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
@@ -18722,7 +17954,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
@@ -18757,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
@@ -18827,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
@@ -19072,7 +18304,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
@@ -24459,13 +23691,17 @@
         <v>67683.33333333333</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>67600</v>
+      </c>
+      <c r="K666" t="n">
+        <v>67600</v>
+      </c>
       <c r="L666" t="inlineStr"/>
       <c r="M666" t="n">
         <v>1</v>
@@ -24494,14 +23730,22 @@
         <v>67833.33333333333</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>67900</v>
+      </c>
+      <c r="K667" t="n">
+        <v>67600</v>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24529,14 +23773,22 @@
         <v>67900</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>68000</v>
+      </c>
+      <c r="K668" t="n">
+        <v>67600</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-28 BackTest LTC.xlsx
+++ b/BackTest/2019-10-28 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>106.42878456</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>106.42878456</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>66400</v>
@@ -521,7 +521,7 @@
         <v>106.42878456</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>66400</v>
@@ -562,7 +562,7 @@
         <v>105.82938456</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>66400</v>
@@ -603,7 +603,7 @@
         <v>105.82938456</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>66300</v>
@@ -644,7 +644,7 @@
         <v>105.82938456</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>66300</v>
@@ -685,7 +685,7 @@
         <v>110.61478456</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>66300</v>
@@ -726,7 +726,7 @@
         <v>110.61478456</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>66400</v>
@@ -767,7 +767,7 @@
         <v>110.61478456</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>66400</v>
@@ -808,7 +808,7 @@
         <v>111.33248456</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>66400</v>
@@ -849,7 +849,7 @@
         <v>82.33138455999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>66450</v>
@@ -890,7 +890,7 @@
         <v>92.33338455999997</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>66400</v>
@@ -931,7 +931,7 @@
         <v>92.33338455999997</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>66500</v>
@@ -972,7 +972,7 @@
         <v>100.29738456</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>66500</v>
@@ -1013,7 +1013,7 @@
         <v>143.26438456</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>66600</v>
@@ -1054,11 +1054,9 @@
         <v>145.41978456</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>66400</v>
       </c>
@@ -1524,9 +1522,11 @@
         <v>212.94128456</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>66850</v>
+      </c>
       <c r="J29" t="n">
         <v>66400</v>
       </c>
@@ -1602,9 +1602,11 @@
         <v>217.7122845599999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>66900</v>
+      </c>
       <c r="J31" t="n">
         <v>66400</v>
       </c>
@@ -3552,9 +3554,11 @@
         <v>-515.4834154400004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>66250</v>
+      </c>
       <c r="J81" t="n">
         <v>66400</v>
       </c>
@@ -3591,9 +3595,11 @@
         <v>-515.4834154400004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>66300</v>
+      </c>
       <c r="J82" t="n">
         <v>66400</v>
       </c>
@@ -3630,9 +3636,11 @@
         <v>-517.2927154400004</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>66300</v>
+      </c>
       <c r="J83" t="n">
         <v>66400</v>
       </c>
@@ -3669,9 +3677,11 @@
         <v>-517.2927154400004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>66100</v>
+      </c>
       <c r="J84" t="n">
         <v>66400</v>
       </c>
@@ -3708,7 +3718,7 @@
         <v>-517.2927154400004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>66100</v>
@@ -3749,9 +3759,11 @@
         <v>-517.2927154400004</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>66100</v>
+      </c>
       <c r="J86" t="n">
         <v>66400</v>
       </c>
@@ -3788,9 +3800,11 @@
         <v>-517.2427154400004</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>66100</v>
+      </c>
       <c r="J87" t="n">
         <v>66400</v>
       </c>
@@ -3827,9 +3841,11 @@
         <v>-517.2427154400004</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>66300</v>
+      </c>
       <c r="J88" t="n">
         <v>66400</v>
       </c>
@@ -3866,9 +3882,11 @@
         <v>-532.6756154400005</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>66300</v>
+      </c>
       <c r="J89" t="n">
         <v>66400</v>
       </c>
@@ -3905,9 +3923,11 @@
         <v>-547.1646154400005</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>66100</v>
+      </c>
       <c r="J90" t="n">
         <v>66400</v>
       </c>
@@ -3944,9 +3964,11 @@
         <v>-547.6945851500005</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>66000</v>
+      </c>
       <c r="J91" t="n">
         <v>66400</v>
       </c>
@@ -3983,9 +4005,11 @@
         <v>-554.9241851500005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>65950</v>
+      </c>
       <c r="J92" t="n">
         <v>66400</v>
       </c>
@@ -4022,9 +4046,11 @@
         <v>-554.8641851500006</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>65900</v>
+      </c>
       <c r="J93" t="n">
         <v>66400</v>
       </c>
@@ -4061,9 +4087,11 @@
         <v>-553.1601851500006</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>66100</v>
+      </c>
       <c r="J94" t="n">
         <v>66400</v>
       </c>
@@ -4100,9 +4128,11 @@
         <v>-553.1601851500006</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>66150</v>
+      </c>
       <c r="J95" t="n">
         <v>66400</v>
       </c>
@@ -4139,9 +4169,11 @@
         <v>-566.7811851500006</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>66150</v>
+      </c>
       <c r="J96" t="n">
         <v>66400</v>
       </c>
@@ -4178,9 +4210,11 @@
         <v>-566.7811851500006</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>66100</v>
+      </c>
       <c r="J97" t="n">
         <v>66400</v>
       </c>
@@ -4217,9 +4251,11 @@
         <v>-577.7197851500006</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>66100</v>
+      </c>
       <c r="J98" t="n">
         <v>66400</v>
       </c>
@@ -4256,9 +4292,11 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>66050</v>
+      </c>
       <c r="J99" t="n">
         <v>66400</v>
       </c>
@@ -4295,9 +4333,11 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>66100</v>
+      </c>
       <c r="J100" t="n">
         <v>66400</v>
       </c>
@@ -4334,9 +4374,11 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>66100</v>
+      </c>
       <c r="J101" t="n">
         <v>66400</v>
       </c>
@@ -4373,9 +4415,11 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>66100</v>
+      </c>
       <c r="J102" t="n">
         <v>66400</v>
       </c>
@@ -4412,7 +4456,7 @@
         <v>-467.4536851500005</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>66100</v>
@@ -4453,9 +4497,11 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>66200</v>
+      </c>
       <c r="J104" t="n">
         <v>66400</v>
       </c>
@@ -4492,9 +4538,11 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>66100</v>
+      </c>
       <c r="J105" t="n">
         <v>66400</v>
       </c>
@@ -4531,9 +4579,11 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>66100</v>
+      </c>
       <c r="J106" t="n">
         <v>66400</v>
       </c>
@@ -4570,9 +4620,11 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>65950</v>
+      </c>
       <c r="J107" t="n">
         <v>66400</v>
       </c>
@@ -4609,9 +4661,11 @@
         <v>-509.1355851500005</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>65950</v>
+      </c>
       <c r="J108" t="n">
         <v>66400</v>
       </c>
@@ -4648,7 +4702,7 @@
         <v>-494.5588851500005</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>66050</v>
@@ -4689,9 +4743,11 @@
         <v>-493.6941851500005</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>66200</v>
+      </c>
       <c r="J110" t="n">
         <v>66400</v>
       </c>
@@ -4728,9 +4784,11 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>66300</v>
+      </c>
       <c r="J111" t="n">
         <v>66400</v>
       </c>
@@ -4767,7 +4825,7 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>66400</v>
@@ -4808,9 +4866,11 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>66400</v>
+      </c>
       <c r="J113" t="n">
         <v>66400</v>
       </c>
@@ -4886,9 +4946,11 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>66300</v>
+      </c>
       <c r="J115" t="n">
         <v>66400</v>
       </c>
@@ -4964,9 +5026,11 @@
         <v>-505.5293851500005</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>66300</v>
+      </c>
       <c r="J117" t="n">
         <v>66400</v>
       </c>
@@ -5003,9 +5067,11 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>66400</v>
+      </c>
       <c r="J118" t="n">
         <v>66400</v>
       </c>
@@ -5042,7 +5108,7 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>66650</v>
@@ -5083,9 +5149,11 @@
         <v>-501.2377851500004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>66650</v>
+      </c>
       <c r="J120" t="n">
         <v>66400</v>
       </c>
@@ -5122,9 +5190,11 @@
         <v>-501.4377851500004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>66900</v>
+      </c>
       <c r="J121" t="n">
         <v>66400</v>
       </c>
@@ -5512,9 +5582,11 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>66900</v>
+      </c>
       <c r="J131" t="n">
         <v>66400</v>
       </c>
@@ -5551,9 +5623,11 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>66900</v>
+      </c>
       <c r="J132" t="n">
         <v>66400</v>
       </c>
@@ -5590,9 +5664,11 @@
         <v>-568.7212851500005</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>66900</v>
+      </c>
       <c r="J133" t="n">
         <v>66400</v>
       </c>
@@ -5629,9 +5705,11 @@
         <v>-574.6834851500006</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>67000</v>
+      </c>
       <c r="J134" t="n">
         <v>66400</v>
       </c>
@@ -5668,9 +5746,11 @@
         <v>-580.1243851500006</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>66850</v>
+      </c>
       <c r="J135" t="n">
         <v>66400</v>
       </c>
@@ -5707,9 +5787,11 @@
         <v>-577.9112851500006</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>66700</v>
+      </c>
       <c r="J136" t="n">
         <v>66400</v>
       </c>
@@ -5746,9 +5828,11 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>66900</v>
+      </c>
       <c r="J137" t="n">
         <v>66400</v>
       </c>
@@ -5785,9 +5869,11 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>66950</v>
+      </c>
       <c r="J138" t="n">
         <v>66400</v>
       </c>
@@ -5824,9 +5910,11 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>66950</v>
+      </c>
       <c r="J139" t="n">
         <v>66400</v>
       </c>
@@ -5863,9 +5951,11 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>66950</v>
+      </c>
       <c r="J140" t="n">
         <v>66400</v>
       </c>
@@ -5902,9 +5992,11 @@
         <v>-546.8316851500006</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>66950</v>
+      </c>
       <c r="J141" t="n">
         <v>66400</v>
       </c>
@@ -5941,9 +6033,11 @@
         <v>-562.3797851500005</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>66850</v>
+      </c>
       <c r="J142" t="n">
         <v>66400</v>
       </c>
@@ -5980,9 +6074,11 @@
         <v>-499.6666851500005</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>66800</v>
+      </c>
       <c r="J143" t="n">
         <v>66400</v>
       </c>
@@ -6019,9 +6115,11 @@
         <v>-499.7356851500006</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>67100</v>
+      </c>
       <c r="J144" t="n">
         <v>66400</v>
       </c>
@@ -6058,9 +6156,11 @@
         <v>-492.1509851500006</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>66950</v>
+      </c>
       <c r="J145" t="n">
         <v>66400</v>
       </c>
@@ -6097,9 +6197,11 @@
         <v>-506.2405851500006</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>67250</v>
+      </c>
       <c r="J146" t="n">
         <v>66400</v>
       </c>
@@ -6136,9 +6238,11 @@
         <v>-495.7200851500006</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>67150</v>
+      </c>
       <c r="J147" t="n">
         <v>66400</v>
       </c>
@@ -6175,9 +6279,11 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>67200</v>
+      </c>
       <c r="J148" t="n">
         <v>66400</v>
       </c>
@@ -6214,9 +6320,11 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>67100</v>
+      </c>
       <c r="J149" t="n">
         <v>66400</v>
       </c>
@@ -6253,9 +6361,11 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>67100</v>
+      </c>
       <c r="J150" t="n">
         <v>66400</v>
       </c>
@@ -6292,9 +6402,11 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>67100</v>
+      </c>
       <c r="J151" t="n">
         <v>66400</v>
       </c>
@@ -6331,9 +6443,11 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>67200</v>
+      </c>
       <c r="J152" t="n">
         <v>66400</v>
       </c>
@@ -6370,9 +6484,11 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>67200</v>
+      </c>
       <c r="J153" t="n">
         <v>66400</v>
       </c>
@@ -6448,9 +6564,11 @@
         <v>-531.5422851500006</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>67150</v>
+      </c>
       <c r="J155" t="n">
         <v>66400</v>
       </c>
@@ -6487,9 +6605,11 @@
         <v>-477.0613851500005</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>67150</v>
+      </c>
       <c r="J156" t="n">
         <v>66400</v>
       </c>
@@ -6526,9 +6646,11 @@
         <v>-460.8303851500006</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>67450</v>
+      </c>
       <c r="J157" t="n">
         <v>66400</v>
       </c>
@@ -6565,9 +6687,11 @@
         <v>-460.8303851500006</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>67500</v>
+      </c>
       <c r="J158" t="n">
         <v>66400</v>
       </c>
@@ -6877,9 +7001,11 @@
         <v>-628.3565851500006</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>67150</v>
+      </c>
       <c r="J166" t="n">
         <v>66400</v>
       </c>
@@ -6916,9 +7042,11 @@
         <v>-541.1714851500005</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>67050</v>
+      </c>
       <c r="J167" t="n">
         <v>66400</v>
       </c>
@@ -8203,7 +8331,7 @@
         <v>155.0936148499993</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
@@ -8242,7 +8370,7 @@
         <v>212.2795148499993</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
@@ -8359,7 +8487,7 @@
         <v>528.2713148499994</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
@@ -8398,7 +8526,7 @@
         <v>507.4643148499994</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
@@ -8437,7 +8565,7 @@
         <v>603.5643148499994</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
@@ -8476,7 +8604,7 @@
         <v>603.5643148499994</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
@@ -8515,7 +8643,7 @@
         <v>583.5643148499994</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
@@ -8593,7 +8721,7 @@
         <v>440.4767148499994</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
@@ -8749,7 +8877,7 @@
         <v>443.3894148499994</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
@@ -8788,7 +8916,7 @@
         <v>463.9284148499994</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
@@ -8827,7 +8955,7 @@
         <v>471.6928148499994</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
@@ -8983,7 +9111,7 @@
         <v>493.0878795899994</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
@@ -9061,7 +9189,7 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
@@ -9100,7 +9228,7 @@
         <v>529.1049795899994</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
@@ -9139,7 +9267,7 @@
         <v>527.2749795899994</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
@@ -9217,7 +9345,7 @@
         <v>555.1317795899994</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
@@ -9373,7 +9501,7 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
@@ -9412,7 +9540,7 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
@@ -10855,848 +10983,998 @@
         <v>983.1060869399998</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>66400</v>
       </c>
       <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C269" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D269" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E269" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F269" t="n">
+        <v>14.2812</v>
+      </c>
+      <c r="G269" t="n">
+        <v>997.3872869399999</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>70900</v>
+      </c>
+      <c r="C270" t="n">
+        <v>70800</v>
+      </c>
+      <c r="D270" t="n">
+        <v>70900</v>
+      </c>
+      <c r="E270" t="n">
+        <v>70800</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1.6779</v>
+      </c>
+      <c r="G270" t="n">
+        <v>999.0651869399999</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>70900</v>
+      </c>
+      <c r="C271" t="n">
+        <v>70400</v>
+      </c>
+      <c r="D271" t="n">
+        <v>70900</v>
+      </c>
+      <c r="E271" t="n">
+        <v>70400</v>
+      </c>
+      <c r="F271" t="n">
+        <v>98.0448</v>
+      </c>
+      <c r="G271" t="n">
+        <v>901.0203869399999</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C272" t="n">
+        <v>70800</v>
+      </c>
+      <c r="D272" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E272" t="n">
+        <v>70800</v>
+      </c>
+      <c r="F272" t="n">
+        <v>111.32864406</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1012.349031</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C273" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D273" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E273" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F273" t="n">
+        <v>29.6827</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1042.031731</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>70900</v>
+      </c>
+      <c r="C274" t="n">
+        <v>70900</v>
+      </c>
+      <c r="D274" t="n">
+        <v>70900</v>
+      </c>
+      <c r="E274" t="n">
+        <v>70900</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3.0545</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1038.977231</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C275" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D275" t="n">
+        <v>71100</v>
+      </c>
+      <c r="E275" t="n">
+        <v>70900</v>
+      </c>
+      <c r="F275" t="n">
+        <v>43.416</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1082.393231</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>70750</v>
+      </c>
+      <c r="C276" t="n">
+        <v>70750</v>
+      </c>
+      <c r="D276" t="n">
+        <v>70750</v>
+      </c>
+      <c r="E276" t="n">
+        <v>70750</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.7499</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1081.643331</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C277" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D277" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E277" t="n">
+        <v>70950</v>
+      </c>
+      <c r="F277" t="n">
+        <v>160.541</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1242.184331</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>70800</v>
+      </c>
+      <c r="C278" t="n">
+        <v>70600</v>
+      </c>
+      <c r="D278" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E278" t="n">
+        <v>70600</v>
+      </c>
+      <c r="F278" t="n">
+        <v>124.9014</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1117.282931</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>70600</v>
+      </c>
+      <c r="C279" t="n">
+        <v>70450</v>
+      </c>
+      <c r="D279" t="n">
+        <v>70600</v>
+      </c>
+      <c r="E279" t="n">
+        <v>70450</v>
+      </c>
+      <c r="F279" t="n">
+        <v>21.5485</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1095.734431</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>70350</v>
+      </c>
+      <c r="C280" t="n">
+        <v>70250</v>
+      </c>
+      <c r="D280" t="n">
+        <v>70350</v>
+      </c>
+      <c r="E280" t="n">
+        <v>70250</v>
+      </c>
+      <c r="F280" t="n">
+        <v>73.7281</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1022.006331</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>70400</v>
+      </c>
+      <c r="C281" t="n">
+        <v>70750</v>
+      </c>
+      <c r="D281" t="n">
+        <v>70750</v>
+      </c>
+      <c r="E281" t="n">
+        <v>70400</v>
+      </c>
+      <c r="F281" t="n">
+        <v>13.874</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1035.880331</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>70700</v>
+      </c>
+      <c r="C282" t="n">
+        <v>70700</v>
+      </c>
+      <c r="D282" t="n">
+        <v>70700</v>
+      </c>
+      <c r="E282" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F282" t="n">
+        <v>11.9704</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1023.909931</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>70700</v>
+      </c>
+      <c r="C283" t="n">
+        <v>70800</v>
+      </c>
+      <c r="D283" t="n">
+        <v>70800</v>
+      </c>
+      <c r="E283" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F283" t="n">
+        <v>169.1203</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1193.030231</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>71000</v>
+      </c>
+      <c r="C284" t="n">
+        <v>71000</v>
+      </c>
+      <c r="D284" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E284" t="n">
+        <v>71000</v>
+      </c>
+      <c r="F284" t="n">
+        <v>53.5468</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1246.577031</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>71100</v>
+      </c>
+      <c r="C285" t="n">
+        <v>71100</v>
+      </c>
+      <c r="D285" t="n">
+        <v>71100</v>
+      </c>
+      <c r="E285" t="n">
+        <v>71100</v>
+      </c>
+      <c r="F285" t="n">
+        <v>7.118</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1253.695031</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>71100</v>
+      </c>
+      <c r="C286" t="n">
+        <v>71500</v>
+      </c>
+      <c r="D286" t="n">
+        <v>71500</v>
+      </c>
+      <c r="E286" t="n">
+        <v>71100</v>
+      </c>
+      <c r="F286" t="n">
+        <v>140.1717</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1393.866731</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>71550</v>
+      </c>
+      <c r="C287" t="n">
+        <v>71400</v>
+      </c>
+      <c r="D287" t="n">
+        <v>71550</v>
+      </c>
+      <c r="E287" t="n">
+        <v>71400</v>
+      </c>
+      <c r="F287" t="n">
+        <v>119.2689</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1274.597831</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>71650</v>
+      </c>
+      <c r="C288" t="n">
+        <v>71700</v>
+      </c>
+      <c r="D288" t="n">
+        <v>71900</v>
+      </c>
+      <c r="E288" t="n">
+        <v>71650</v>
+      </c>
+      <c r="F288" t="n">
+        <v>24.78827079</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1299.38610179</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>71700</v>
+      </c>
+      <c r="C289" t="n">
+        <v>72500</v>
+      </c>
+      <c r="D289" t="n">
+        <v>72500</v>
+      </c>
+      <c r="E289" t="n">
+        <v>71700</v>
+      </c>
+      <c r="F289" t="n">
+        <v>757.9236292099999</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2057.309730999999</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>72300</v>
+      </c>
+      <c r="C290" t="n">
+        <v>72000</v>
+      </c>
+      <c r="D290" t="n">
+        <v>72400</v>
+      </c>
+      <c r="E290" t="n">
+        <v>71700</v>
+      </c>
+      <c r="F290" t="n">
+        <v>176.20681785</v>
+      </c>
+      <c r="G290" t="n">
+        <v>1881.102913149999</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>71900</v>
+      </c>
+      <c r="C291" t="n">
+        <v>72050</v>
+      </c>
+      <c r="D291" t="n">
+        <v>72050</v>
+      </c>
+      <c r="E291" t="n">
+        <v>71850</v>
+      </c>
+      <c r="F291" t="n">
+        <v>79.6023</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1960.70521315</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>71950</v>
+      </c>
+      <c r="C292" t="n">
+        <v>71600</v>
+      </c>
+      <c r="D292" t="n">
+        <v>72000</v>
+      </c>
+      <c r="E292" t="n">
+        <v>71500</v>
+      </c>
+      <c r="F292" t="n">
+        <v>213.1627</v>
+      </c>
+      <c r="G292" t="n">
+        <v>1747.542513149999</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>71550</v>
+      </c>
+      <c r="C293" t="n">
+        <v>71400</v>
+      </c>
+      <c r="D293" t="n">
+        <v>71550</v>
+      </c>
+      <c r="E293" t="n">
+        <v>71200</v>
+      </c>
+      <c r="F293" t="n">
+        <v>89.1268</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1658.415713149999</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>66400</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1.058253012048193</v>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>70800</v>
-      </c>
-      <c r="C269" t="n">
-        <v>70700</v>
-      </c>
-      <c r="D269" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E269" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F269" t="n">
-        <v>14.2812</v>
-      </c>
-      <c r="G269" t="n">
-        <v>997.3872869399999</v>
-      </c>
-      <c r="H269" t="n">
-        <v>3</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>70900</v>
-      </c>
-      <c r="C270" t="n">
-        <v>70800</v>
-      </c>
-      <c r="D270" t="n">
-        <v>70900</v>
-      </c>
-      <c r="E270" t="n">
-        <v>70800</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1.6779</v>
-      </c>
-      <c r="G270" t="n">
-        <v>999.0651869399999</v>
-      </c>
-      <c r="H270" t="n">
-        <v>3</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>70900</v>
-      </c>
-      <c r="C271" t="n">
-        <v>70400</v>
-      </c>
-      <c r="D271" t="n">
-        <v>70900</v>
-      </c>
-      <c r="E271" t="n">
-        <v>70400</v>
-      </c>
-      <c r="F271" t="n">
-        <v>98.0448</v>
-      </c>
-      <c r="G271" t="n">
-        <v>901.0203869399999</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>70800</v>
-      </c>
-      <c r="C272" t="n">
-        <v>70800</v>
-      </c>
-      <c r="D272" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E272" t="n">
-        <v>70800</v>
-      </c>
-      <c r="F272" t="n">
-        <v>111.32864406</v>
-      </c>
-      <c r="G272" t="n">
-        <v>1012.349031</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C273" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D273" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E273" t="n">
-        <v>71000</v>
-      </c>
-      <c r="F273" t="n">
-        <v>29.6827</v>
-      </c>
-      <c r="G273" t="n">
-        <v>1042.031731</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>70900</v>
-      </c>
-      <c r="C274" t="n">
-        <v>70900</v>
-      </c>
-      <c r="D274" t="n">
-        <v>70900</v>
-      </c>
-      <c r="E274" t="n">
-        <v>70900</v>
-      </c>
-      <c r="F274" t="n">
-        <v>3.0545</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1038.977231</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C275" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D275" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E275" t="n">
-        <v>70900</v>
-      </c>
-      <c r="F275" t="n">
-        <v>43.416</v>
-      </c>
-      <c r="G275" t="n">
-        <v>1082.393231</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>70750</v>
-      </c>
-      <c r="C276" t="n">
-        <v>70750</v>
-      </c>
-      <c r="D276" t="n">
-        <v>70750</v>
-      </c>
-      <c r="E276" t="n">
-        <v>70750</v>
-      </c>
-      <c r="F276" t="n">
-        <v>0.7499</v>
-      </c>
-      <c r="G276" t="n">
-        <v>1081.643331</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C277" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D277" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E277" t="n">
-        <v>70950</v>
-      </c>
-      <c r="F277" t="n">
-        <v>160.541</v>
-      </c>
-      <c r="G277" t="n">
-        <v>1242.184331</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>70800</v>
-      </c>
-      <c r="C278" t="n">
-        <v>70600</v>
-      </c>
-      <c r="D278" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E278" t="n">
-        <v>70600</v>
-      </c>
-      <c r="F278" t="n">
-        <v>124.9014</v>
-      </c>
-      <c r="G278" t="n">
-        <v>1117.282931</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>70600</v>
-      </c>
-      <c r="C279" t="n">
-        <v>70450</v>
-      </c>
-      <c r="D279" t="n">
-        <v>70600</v>
-      </c>
-      <c r="E279" t="n">
-        <v>70450</v>
-      </c>
-      <c r="F279" t="n">
-        <v>21.5485</v>
-      </c>
-      <c r="G279" t="n">
-        <v>1095.734431</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>70350</v>
-      </c>
-      <c r="C280" t="n">
-        <v>70250</v>
-      </c>
-      <c r="D280" t="n">
-        <v>70350</v>
-      </c>
-      <c r="E280" t="n">
-        <v>70250</v>
-      </c>
-      <c r="F280" t="n">
-        <v>73.7281</v>
-      </c>
-      <c r="G280" t="n">
-        <v>1022.006331</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>70400</v>
-      </c>
-      <c r="C281" t="n">
-        <v>70750</v>
-      </c>
-      <c r="D281" t="n">
-        <v>70750</v>
-      </c>
-      <c r="E281" t="n">
-        <v>70400</v>
-      </c>
-      <c r="F281" t="n">
-        <v>13.874</v>
-      </c>
-      <c r="G281" t="n">
-        <v>1035.880331</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>70700</v>
-      </c>
-      <c r="C282" t="n">
-        <v>70700</v>
-      </c>
-      <c r="D282" t="n">
-        <v>70700</v>
-      </c>
-      <c r="E282" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F282" t="n">
-        <v>11.9704</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1023.909931</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>70700</v>
-      </c>
-      <c r="C283" t="n">
-        <v>70800</v>
-      </c>
-      <c r="D283" t="n">
-        <v>70800</v>
-      </c>
-      <c r="E283" t="n">
-        <v>70700</v>
-      </c>
-      <c r="F283" t="n">
-        <v>169.1203</v>
-      </c>
-      <c r="G283" t="n">
-        <v>1193.030231</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>71000</v>
-      </c>
-      <c r="C284" t="n">
-        <v>71000</v>
-      </c>
-      <c r="D284" t="n">
-        <v>71000</v>
-      </c>
-      <c r="E284" t="n">
-        <v>71000</v>
-      </c>
-      <c r="F284" t="n">
-        <v>53.5468</v>
-      </c>
-      <c r="G284" t="n">
-        <v>1246.577031</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>71100</v>
-      </c>
-      <c r="C285" t="n">
-        <v>71100</v>
-      </c>
-      <c r="D285" t="n">
-        <v>71100</v>
-      </c>
-      <c r="E285" t="n">
-        <v>71100</v>
-      </c>
-      <c r="F285" t="n">
-        <v>7.118</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1253.695031</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>71100</v>
-      </c>
-      <c r="C286" t="n">
-        <v>71500</v>
-      </c>
-      <c r="D286" t="n">
-        <v>71500</v>
-      </c>
-      <c r="E286" t="n">
-        <v>71100</v>
-      </c>
-      <c r="F286" t="n">
-        <v>140.1717</v>
-      </c>
-      <c r="G286" t="n">
-        <v>1393.866731</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>71550</v>
-      </c>
-      <c r="C287" t="n">
-        <v>71400</v>
-      </c>
-      <c r="D287" t="n">
-        <v>71550</v>
-      </c>
-      <c r="E287" t="n">
-        <v>71400</v>
-      </c>
-      <c r="F287" t="n">
-        <v>119.2689</v>
-      </c>
-      <c r="G287" t="n">
-        <v>1274.597831</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>71650</v>
-      </c>
-      <c r="C288" t="n">
-        <v>71700</v>
-      </c>
-      <c r="D288" t="n">
-        <v>71900</v>
-      </c>
-      <c r="E288" t="n">
-        <v>71650</v>
-      </c>
-      <c r="F288" t="n">
-        <v>24.78827079</v>
-      </c>
-      <c r="G288" t="n">
-        <v>1299.38610179</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>71700</v>
-      </c>
-      <c r="C289" t="n">
-        <v>72500</v>
-      </c>
-      <c r="D289" t="n">
-        <v>72500</v>
-      </c>
-      <c r="E289" t="n">
-        <v>71700</v>
-      </c>
-      <c r="F289" t="n">
-        <v>757.9236292099999</v>
-      </c>
-      <c r="G289" t="n">
-        <v>2057.309730999999</v>
-      </c>
-      <c r="H289" t="n">
-        <v>3</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>72300</v>
-      </c>
-      <c r="C290" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D290" t="n">
-        <v>72400</v>
-      </c>
-      <c r="E290" t="n">
-        <v>71700</v>
-      </c>
-      <c r="F290" t="n">
-        <v>176.20681785</v>
-      </c>
-      <c r="G290" t="n">
-        <v>1881.102913149999</v>
-      </c>
-      <c r="H290" t="n">
-        <v>3</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>71900</v>
-      </c>
-      <c r="C291" t="n">
-        <v>72050</v>
-      </c>
-      <c r="D291" t="n">
-        <v>72050</v>
-      </c>
-      <c r="E291" t="n">
-        <v>71850</v>
-      </c>
-      <c r="F291" t="n">
-        <v>79.6023</v>
-      </c>
-      <c r="G291" t="n">
-        <v>1960.70521315</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>71950</v>
-      </c>
-      <c r="C292" t="n">
-        <v>71600</v>
-      </c>
-      <c r="D292" t="n">
-        <v>72000</v>
-      </c>
-      <c r="E292" t="n">
-        <v>71500</v>
-      </c>
-      <c r="F292" t="n">
-        <v>213.1627</v>
-      </c>
-      <c r="G292" t="n">
-        <v>1747.542513149999</v>
-      </c>
-      <c r="H292" t="n">
-        <v>3</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>71550</v>
-      </c>
-      <c r="C293" t="n">
-        <v>71400</v>
-      </c>
-      <c r="D293" t="n">
-        <v>71550</v>
-      </c>
-      <c r="E293" t="n">
-        <v>71200</v>
-      </c>
-      <c r="F293" t="n">
-        <v>89.1268</v>
-      </c>
-      <c r="G293" t="n">
-        <v>1658.415713149999</v>
-      </c>
-      <c r="H293" t="n">
-        <v>3</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+        <v>1.070301204819277</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11721,7 +11999,7 @@
         <v>1699.58201315</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11787,7 +12065,7 @@
         <v>1726.004413149999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11820,7 +12098,7 @@
         <v>1616.937413149999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11853,7 +12131,7 @@
         <v>1629.302313149999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11886,7 +12164,7 @@
         <v>1606.22961315</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11952,7 +12230,7 @@
         <v>1565.01011315</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11985,7 +12263,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12018,7 +12296,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12051,7 +12329,7 @@
         <v>1565.813113149999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12084,7 +12362,7 @@
         <v>1456.177513149999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12117,7 +12395,7 @@
         <v>1551.486513149999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12150,7 +12428,7 @@
         <v>1512.997913149999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12183,7 +12461,7 @@
         <v>1512.163813149999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12216,7 +12494,7 @@
         <v>1505.88531315</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12249,7 +12527,7 @@
         <v>1501.414613149999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12282,7 +12560,7 @@
         <v>1492.536313149999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12315,7 +12593,7 @@
         <v>1523.494913149999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12348,7 +12626,7 @@
         <v>1384.665313149999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12381,7 +12659,7 @@
         <v>1244.725513149999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12414,7 +12692,7 @@
         <v>1242.678313149999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12447,7 +12725,7 @@
         <v>1105.711413149999</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12480,7 +12758,7 @@
         <v>1048.892913149999</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12513,7 +12791,7 @@
         <v>1194.284398929999</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12546,7 +12824,7 @@
         <v>1180.963398929999</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12579,7 +12857,7 @@
         <v>1203.541698929999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12678,7 +12956,7 @@
         <v>1185.412998929999</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12810,7 +13088,7 @@
         <v>1173.032998929999</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12876,7 +13154,7 @@
         <v>1188.810698929999</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12909,7 +13187,7 @@
         <v>1188.810698929999</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12942,7 +13220,7 @@
         <v>1188.810698929999</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12975,7 +13253,7 @@
         <v>1188.510698929999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13008,7 +13286,7 @@
         <v>1187.682098929999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13041,7 +13319,7 @@
         <v>1188.867598929999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13074,7 +13352,7 @@
         <v>1188.867598929999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13107,7 +13385,7 @@
         <v>1188.867598929999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13140,7 +13418,7 @@
         <v>1196.271798929999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13173,7 +13451,7 @@
         <v>1174.892898929999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13206,7 +13484,7 @@
         <v>1218.896698929999</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13239,7 +13517,7 @@
         <v>967.6398989299993</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13272,7 +13550,7 @@
         <v>978.1110989299992</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13305,7 +13583,7 @@
         <v>978.1110989299992</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13338,7 +13616,7 @@
         <v>998.0128989299992</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13371,7 +13649,7 @@
         <v>1128.127298929999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13404,7 +13682,7 @@
         <v>1129.255998929999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13437,7 +13715,7 @@
         <v>1129.255998929999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13470,7 +13748,7 @@
         <v>1130.897598929999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13503,7 +13781,7 @@
         <v>1119.030598929999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13536,7 +13814,7 @@
         <v>1116.488998929999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13569,7 +13847,7 @@
         <v>1116.488998929999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13602,7 +13880,7 @@
         <v>1116.488998929999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13635,7 +13913,7 @@
         <v>1116.488998929999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13668,7 +13946,7 @@
         <v>1128.629698929999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13833,7 +14111,7 @@
         <v>1148.339298929999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13866,7 +14144,7 @@
         <v>1154.839298929999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13899,7 +14177,7 @@
         <v>1174.424098929999</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13932,7 +14210,7 @@
         <v>1174.424098929999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13965,7 +14243,7 @@
         <v>1174.424098929999</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13998,7 +14276,7 @@
         <v>1176.302098929999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14031,7 +14309,7 @@
         <v>1181.029098929999</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14064,7 +14342,7 @@
         <v>1232.182798929999</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14097,7 +14375,7 @@
         <v>1135.326398929999</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14130,7 +14408,7 @@
         <v>917.5820989299993</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14163,7 +14441,7 @@
         <v>859.9083989299993</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14196,7 +14474,7 @@
         <v>856.5692989299993</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14229,7 +14507,7 @@
         <v>938.5874989299992</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14262,7 +14540,7 @@
         <v>933.3222989299992</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14295,7 +14573,7 @@
         <v>974.7699989299992</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14328,7 +14606,7 @@
         <v>974.6600989299992</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14361,7 +14639,7 @@
         <v>1027.980598929999</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14394,7 +14672,7 @@
         <v>982.3908989299991</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14427,7 +14705,7 @@
         <v>992.3721989299992</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14460,7 +14738,7 @@
         <v>992.3721989299992</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14493,7 +14771,7 @@
         <v>992.1402989299992</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14526,7 +14804,7 @@
         <v>992.1402989299992</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14559,7 +14837,7 @@
         <v>992.1402989299992</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14592,7 +14870,7 @@
         <v>992.1402989299992</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14625,7 +14903,7 @@
         <v>976.3907989299992</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14658,7 +14936,7 @@
         <v>976.3907989299992</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14691,7 +14969,7 @@
         <v>976.3907989299992</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14724,7 +15002,7 @@
         <v>1055.366798929999</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14757,7 +15035,7 @@
         <v>1055.366798929999</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14790,7 +15068,7 @@
         <v>1055.366798929999</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14823,7 +15101,7 @@
         <v>1048.207698929999</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14856,7 +15134,7 @@
         <v>1048.207698929999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14889,7 +15167,7 @@
         <v>1101.007698929999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14922,7 +15200,7 @@
         <v>1096.983998929999</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14955,7 +15233,7 @@
         <v>1133.687698929999</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14988,7 +15266,7 @@
         <v>1125.658798929999</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15021,7 +15299,7 @@
         <v>1119.467798929999</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15054,7 +15332,7 @@
         <v>1128.012498929999</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15087,7 +15365,7 @@
         <v>1114.735498929999</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15120,7 +15398,7 @@
         <v>1058.877998929999</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15153,7 +15431,7 @@
         <v>1039.418798929999</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15186,7 +15464,7 @@
         <v>1042.414098929999</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15219,7 +15497,7 @@
         <v>1042.414098929999</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15252,7 +15530,7 @@
         <v>946.693698929999</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15285,7 +15563,7 @@
         <v>946.8736989299989</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15318,7 +15596,7 @@
         <v>946.8736989299989</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15351,7 +15629,7 @@
         <v>946.8736989299989</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15384,7 +15662,7 @@
         <v>946.8736989299989</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15417,7 +15695,7 @@
         <v>947.1466989299989</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15450,7 +15728,7 @@
         <v>944.0508989299989</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15483,7 +15761,7 @@
         <v>944.0508989299989</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15516,7 +15794,7 @@
         <v>957.7809989299989</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15549,7 +15827,7 @@
         <v>957.1900989299988</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15582,7 +15860,7 @@
         <v>951.9760989299988</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15615,7 +15893,7 @@
         <v>952.3217989299987</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15648,7 +15926,7 @@
         <v>952.1717989299988</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15681,7 +15959,7 @@
         <v>950.6817989299988</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15747,7 +16025,7 @@
         <v>920.8878989299988</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -18453,7 +18731,7 @@
         <v>602.6234215199984</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18486,7 +18764,7 @@
         <v>548.3460215199984</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -20268,7 +20546,7 @@
         <v>220.2987215199983</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20301,7 +20579,7 @@
         <v>223.8494215199983</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20334,7 +20612,7 @@
         <v>228.5409215199983</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20367,7 +20645,7 @@
         <v>242.0061215199983</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20400,7 +20678,7 @@
         <v>242.2710215199984</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20433,7 +20711,7 @@
         <v>316.0610215199983</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20466,7 +20744,7 @@
         <v>308.0411215199983</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20499,7 +20777,7 @@
         <v>308.8993215199984</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20532,7 +20810,7 @@
         <v>470.9337215199984</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20565,7 +20843,7 @@
         <v>462.5552215199984</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20598,7 +20876,7 @@
         <v>462.5552215199984</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20631,7 +20909,7 @@
         <v>478.7049215199984</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20664,7 +20942,7 @@
         <v>464.9874215199984</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20697,7 +20975,7 @@
         <v>464.9874215199984</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20730,7 +21008,7 @@
         <v>464.9874215199984</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20763,7 +21041,7 @@
         <v>465.2282147199984</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20796,7 +21074,7 @@
         <v>465.2282147199984</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20862,7 +21140,7 @@
         <v>402.4557147199984</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20895,7 +21173,7 @@
         <v>442.8185147199984</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20928,7 +21206,7 @@
         <v>425.7261147199984</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20961,7 +21239,7 @@
         <v>427.4261147199984</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20994,7 +21272,7 @@
         <v>427.4261147199984</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21027,7 +21305,7 @@
         <v>498.4835147199984</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21060,7 +21338,7 @@
         <v>514.7961147199984</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21093,7 +21371,7 @@
         <v>522.8699147199984</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21126,7 +21404,7 @@
         <v>522.8699147199984</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21159,7 +21437,7 @@
         <v>527.1623147199984</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21192,7 +21470,7 @@
         <v>526.2773147199985</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21225,7 +21503,7 @@
         <v>526.2773147199985</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21258,7 +21536,7 @@
         <v>531.9604147199984</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21291,7 +21569,7 @@
         <v>539.9016147199984</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22050,7 +22328,7 @@
         <v>201.3467005899985</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -29948,6 +30226,6 @@
       <c r="M846" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest LTC.xlsx
+++ b/BackTest/2019-10-28 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>106.42878456</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>106.42878456</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J3" t="n">
-        <v>66400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>106.42878456</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J4" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>105.82938456</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J5" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>105.82938456</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J6" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>105.82938456</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J7" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>110.61478456</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J8" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>110.61478456</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J9" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>110.61478456</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J10" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>111.33248456</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J11" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>82.33138455999998</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>66450</v>
-      </c>
-      <c r="J12" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>92.33338455999997</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J13" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>92.33338455999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66500</v>
-      </c>
-      <c r="J14" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>100.29738456</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>66500</v>
-      </c>
-      <c r="J15" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>143.26438456</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>66600</v>
-      </c>
-      <c r="J16" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1057,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1096,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1135,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1174,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1213,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1252,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1291,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1330,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1369,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1408,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1447,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1486,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1522,19 +1342,11 @@
         <v>212.94128456</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>66850</v>
-      </c>
-      <c r="J29" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1566,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1602,19 +1408,11 @@
         <v>217.7122845599999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J31" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1646,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1685,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1724,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1763,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1802,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1841,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1880,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1919,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1958,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1997,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2036,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2075,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2114,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2153,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2192,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2231,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2270,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2309,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2348,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2387,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2426,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2465,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2504,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2543,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2582,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2660,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2699,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2738,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2777,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2816,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2855,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2894,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2933,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2972,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3011,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3050,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3089,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3128,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3167,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3206,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3245,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3284,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3323,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3362,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3401,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3440,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3479,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3518,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3554,19 +3058,11 @@
         <v>-515.4834154400004</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>66250</v>
-      </c>
-      <c r="J81" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3595,19 +3091,11 @@
         <v>-515.4834154400004</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J82" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3636,19 +3124,11 @@
         <v>-517.2927154400004</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J83" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3677,19 +3157,11 @@
         <v>-517.2927154400004</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J84" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3718,19 +3190,11 @@
         <v>-517.2927154400004</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J85" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3759,19 +3223,11 @@
         <v>-517.2927154400004</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J86" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3800,19 +3256,11 @@
         <v>-517.2427154400004</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J87" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3841,19 +3289,11 @@
         <v>-517.2427154400004</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J88" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3882,19 +3322,11 @@
         <v>-532.6756154400005</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J89" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3923,19 +3355,11 @@
         <v>-547.1646154400005</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J90" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3964,19 +3388,11 @@
         <v>-547.6945851500005</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>66000</v>
-      </c>
-      <c r="J91" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4005,19 +3421,11 @@
         <v>-554.9241851500005</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>65950</v>
-      </c>
-      <c r="J92" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4046,19 +3454,11 @@
         <v>-554.8641851500006</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>65900</v>
-      </c>
-      <c r="J93" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4087,19 +3487,11 @@
         <v>-553.1601851500006</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J94" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4128,19 +3520,11 @@
         <v>-553.1601851500006</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>66150</v>
-      </c>
-      <c r="J95" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4169,19 +3553,11 @@
         <v>-566.7811851500006</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>66150</v>
-      </c>
-      <c r="J96" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4210,19 +3586,11 @@
         <v>-566.7811851500006</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4251,19 +3619,11 @@
         <v>-577.7197851500006</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J98" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4292,19 +3652,11 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>66050</v>
-      </c>
-      <c r="J99" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4333,19 +3685,11 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J100" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4374,19 +3718,11 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J101" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4415,19 +3751,11 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J102" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4456,19 +3784,11 @@
         <v>-467.4536851500005</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J103" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4497,19 +3817,11 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>66200</v>
-      </c>
-      <c r="J104" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4538,19 +3850,11 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J105" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4579,19 +3883,11 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>66100</v>
-      </c>
-      <c r="J106" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4620,19 +3916,11 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>65950</v>
-      </c>
-      <c r="J107" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4661,19 +3949,11 @@
         <v>-509.1355851500005</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>65950</v>
-      </c>
-      <c r="J108" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4702,19 +3982,11 @@
         <v>-494.5588851500005</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>66050</v>
-      </c>
-      <c r="J109" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4743,19 +4015,11 @@
         <v>-493.6941851500005</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>66200</v>
-      </c>
-      <c r="J110" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4784,19 +4048,11 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J111" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4825,19 +4081,11 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J112" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4866,19 +4114,11 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J113" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4910,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4946,19 +4180,11 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J115" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4990,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5026,19 +4246,11 @@
         <v>-505.5293851500005</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>66300</v>
-      </c>
-      <c r="J117" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5067,19 +4279,11 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>66400</v>
-      </c>
-      <c r="J118" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5108,19 +4312,11 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>66650</v>
-      </c>
-      <c r="J119" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5149,19 +4345,11 @@
         <v>-501.2377851500004</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>66650</v>
-      </c>
-      <c r="J120" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5190,19 +4378,11 @@
         <v>-501.4377851500004</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J121" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5429,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5468,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5507,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5546,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5582,19 +4708,11 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J131" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5623,19 +4741,11 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J132" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5664,19 +4774,11 @@
         <v>-568.7212851500005</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J133" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5705,19 +4807,11 @@
         <v>-574.6834851500006</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>67000</v>
-      </c>
-      <c r="J134" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5746,19 +4840,11 @@
         <v>-580.1243851500006</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>66850</v>
-      </c>
-      <c r="J135" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5787,19 +4873,11 @@
         <v>-577.9112851500006</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>66700</v>
-      </c>
-      <c r="J136" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5828,19 +4906,11 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>66900</v>
-      </c>
-      <c r="J137" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5869,19 +4939,11 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>66950</v>
-      </c>
-      <c r="J138" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5910,19 +4972,11 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>66950</v>
-      </c>
-      <c r="J139" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5951,19 +5005,11 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>66950</v>
-      </c>
-      <c r="J140" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5992,19 +5038,11 @@
         <v>-546.8316851500006</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>66950</v>
-      </c>
-      <c r="J141" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6033,19 +5071,11 @@
         <v>-562.3797851500005</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>66850</v>
-      </c>
-      <c r="J142" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6074,19 +5104,11 @@
         <v>-499.6666851500005</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>66800</v>
-      </c>
-      <c r="J143" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6115,19 +5137,11 @@
         <v>-499.7356851500006</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>67100</v>
-      </c>
-      <c r="J144" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6156,19 +5170,11 @@
         <v>-492.1509851500006</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>66950</v>
-      </c>
-      <c r="J145" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6197,19 +5203,11 @@
         <v>-506.2405851500006</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>67250</v>
-      </c>
-      <c r="J146" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6238,19 +5236,11 @@
         <v>-495.7200851500006</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>67150</v>
-      </c>
-      <c r="J147" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6279,19 +5269,11 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>67200</v>
-      </c>
-      <c r="J148" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6320,19 +5302,11 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>67100</v>
-      </c>
-      <c r="J149" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6361,19 +5335,11 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>67100</v>
-      </c>
-      <c r="J150" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6402,19 +5368,11 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>67100</v>
-      </c>
-      <c r="J151" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6443,19 +5401,11 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>67200</v>
-      </c>
-      <c r="J152" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6484,19 +5434,11 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>67200</v>
-      </c>
-      <c r="J153" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6528,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6564,19 +5500,11 @@
         <v>-531.5422851500006</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>67150</v>
-      </c>
-      <c r="J155" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6605,19 +5533,11 @@
         <v>-477.0613851500005</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>67150</v>
-      </c>
-      <c r="J156" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6646,19 +5566,11 @@
         <v>-460.8303851500006</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>67450</v>
-      </c>
-      <c r="J157" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6687,19 +5599,11 @@
         <v>-460.8303851500006</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J158" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6731,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6770,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6809,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6848,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6887,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6926,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6965,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7001,19 +5863,11 @@
         <v>-628.3565851500006</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>67150</v>
-      </c>
-      <c r="J166" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7042,19 +5896,11 @@
         <v>-541.1714851500005</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>67050</v>
-      </c>
-      <c r="J167" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7086,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7125,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7164,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7203,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7242,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7281,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7320,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7359,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7398,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7437,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7476,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7515,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7554,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7593,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7632,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7671,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7710,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7749,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7788,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7827,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7866,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7905,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7944,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7983,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8022,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8061,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8100,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8139,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8178,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8217,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8253,17 +6919,11 @@
         <v>122.2171148499993</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8292,17 +6952,11 @@
         <v>146.0252148499993</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8334,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8373,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8409,17 +7051,11 @@
         <v>151.3868148499994</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8448,17 +7084,11 @@
         <v>151.8952148499993</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8490,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8529,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8568,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8607,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8646,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8685,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8724,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8760,17 +7348,11 @@
         <v>442.9865148499994</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8799,17 +7381,11 @@
         <v>442.7865148499994</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8838,17 +7414,11 @@
         <v>442.7865148499994</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8877,17 +7447,11 @@
         <v>443.3894148499994</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8916,17 +7480,11 @@
         <v>463.9284148499994</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8955,17 +7513,11 @@
         <v>471.6928148499994</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8994,17 +7546,11 @@
         <v>471.4395795899994</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9036,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9075,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9114,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9150,17 +7678,11 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9189,17 +7711,11 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9228,17 +7744,11 @@
         <v>529.1049795899994</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9267,17 +7777,11 @@
         <v>527.2749795899994</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9306,17 +7810,11 @@
         <v>524.9788795899993</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9348,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9384,17 +7876,11 @@
         <v>465.3283795899994</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9426,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9462,17 +7942,11 @@
         <v>477.0288795899994</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9501,17 +7975,11 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9540,17 +8008,11 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9579,17 +8041,11 @@
         <v>452.2280795899994</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9618,17 +8074,11 @@
         <v>252.9899795899994</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9660,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9699,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9738,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9777,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9816,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9855,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9894,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9933,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9972,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10011,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10050,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10089,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10128,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10167,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10206,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10245,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10284,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10323,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10362,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10401,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10440,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10479,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10518,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10557,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10596,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10635,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10674,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10713,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10752,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10791,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10830,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10869,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10908,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10947,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10986,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11025,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11064,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11103,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11142,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11181,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11220,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11259,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11298,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11337,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11376,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11415,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11454,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11493,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11532,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11571,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11610,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11649,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11688,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11727,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11766,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11805,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11844,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11883,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11922,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11958,23 +10054,15 @@
         <v>1658.415713149999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>66400</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
-        <v>1.070301204819277</v>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11999,7 +10087,7 @@
         <v>1699.58201315</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -12065,7 +10153,7 @@
         <v>1726.004413149999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12098,7 +10186,7 @@
         <v>1616.937413149999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -12131,7 +10219,7 @@
         <v>1629.302313149999</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -12164,7 +10252,7 @@
         <v>1606.22961315</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12230,7 +10318,7 @@
         <v>1565.01011315</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12263,7 +10351,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12296,7 +10384,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12329,7 +10417,7 @@
         <v>1565.813113149999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12362,7 +10450,7 @@
         <v>1456.177513149999</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12395,7 +10483,7 @@
         <v>1551.486513149999</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12428,7 +10516,7 @@
         <v>1512.997913149999</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12461,7 +10549,7 @@
         <v>1512.163813149999</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12494,7 +10582,7 @@
         <v>1505.88531315</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12527,7 +10615,7 @@
         <v>1501.414613149999</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12560,7 +10648,7 @@
         <v>1492.536313149999</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12593,7 +10681,7 @@
         <v>1523.494913149999</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12626,7 +10714,7 @@
         <v>1384.665313149999</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12659,7 +10747,7 @@
         <v>1244.725513149999</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12692,7 +10780,7 @@
         <v>1242.678313149999</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12725,7 +10813,7 @@
         <v>1105.711413149999</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12758,7 +10846,7 @@
         <v>1048.892913149999</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12791,7 +10879,7 @@
         <v>1194.284398929999</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12824,7 +10912,7 @@
         <v>1180.963398929999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12857,7 +10945,7 @@
         <v>1203.541698929999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -13088,7 +11176,7 @@
         <v>1173.032998929999</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -13154,7 +11242,7 @@
         <v>1188.810698929999</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13187,7 +11275,7 @@
         <v>1188.810698929999</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13220,7 +11308,7 @@
         <v>1188.810698929999</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13253,7 +11341,7 @@
         <v>1188.510698929999</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13286,7 +11374,7 @@
         <v>1187.682098929999</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13319,7 +11407,7 @@
         <v>1188.867598929999</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13352,7 +11440,7 @@
         <v>1188.867598929999</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13385,7 +11473,7 @@
         <v>1188.867598929999</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13418,7 +11506,7 @@
         <v>1196.271798929999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13451,7 +11539,7 @@
         <v>1174.892898929999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13517,7 +11605,7 @@
         <v>967.6398989299993</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13550,7 +11638,7 @@
         <v>978.1110989299992</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13583,7 +11671,7 @@
         <v>978.1110989299992</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13616,7 +11704,7 @@
         <v>998.0128989299992</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13649,7 +11737,7 @@
         <v>1128.127298929999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13682,7 +11770,7 @@
         <v>1129.255998929999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13715,7 +11803,7 @@
         <v>1129.255998929999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13748,7 +11836,7 @@
         <v>1130.897598929999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13781,7 +11869,7 @@
         <v>1119.030598929999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13814,7 +11902,7 @@
         <v>1116.488998929999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13847,7 +11935,7 @@
         <v>1116.488998929999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13880,7 +11968,7 @@
         <v>1116.488998929999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13913,7 +12001,7 @@
         <v>1116.488998929999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13946,7 +12034,7 @@
         <v>1128.629698929999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -14111,7 +12199,7 @@
         <v>1148.339298929999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14144,7 +12232,7 @@
         <v>1154.839298929999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14177,7 +12265,7 @@
         <v>1174.424098929999</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14210,7 +12298,7 @@
         <v>1174.424098929999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14243,7 +12331,7 @@
         <v>1174.424098929999</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14276,7 +12364,7 @@
         <v>1176.302098929999</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14309,7 +12397,7 @@
         <v>1181.029098929999</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14342,7 +12430,7 @@
         <v>1232.182798929999</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14375,7 +12463,7 @@
         <v>1135.326398929999</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14408,7 +12496,7 @@
         <v>917.5820989299993</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14441,7 +12529,7 @@
         <v>859.9083989299993</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14474,7 +12562,7 @@
         <v>856.5692989299993</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14507,7 +12595,7 @@
         <v>938.5874989299992</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14540,7 +12628,7 @@
         <v>933.3222989299992</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14573,7 +12661,7 @@
         <v>974.7699989299992</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14606,7 +12694,7 @@
         <v>974.6600989299992</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14639,7 +12727,7 @@
         <v>1027.980598929999</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14672,7 +12760,7 @@
         <v>982.3908989299991</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14705,7 +12793,7 @@
         <v>992.3721989299992</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14738,7 +12826,7 @@
         <v>992.3721989299992</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14771,7 +12859,7 @@
         <v>992.1402989299992</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14804,7 +12892,7 @@
         <v>992.1402989299992</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14837,7 +12925,7 @@
         <v>992.1402989299992</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14870,7 +12958,7 @@
         <v>992.1402989299992</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14903,7 +12991,7 @@
         <v>976.3907989299992</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14936,7 +13024,7 @@
         <v>976.3907989299992</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14969,7 +13057,7 @@
         <v>976.3907989299992</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15002,7 +13090,7 @@
         <v>1055.366798929999</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15035,7 +13123,7 @@
         <v>1055.366798929999</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15068,7 +13156,7 @@
         <v>1055.366798929999</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15101,7 +13189,7 @@
         <v>1048.207698929999</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15134,7 +13222,7 @@
         <v>1048.207698929999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15167,7 +13255,7 @@
         <v>1101.007698929999</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15200,7 +13288,7 @@
         <v>1096.983998929999</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15233,7 +13321,7 @@
         <v>1133.687698929999</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15266,7 +13354,7 @@
         <v>1125.658798929999</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15299,7 +13387,7 @@
         <v>1119.467798929999</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15332,7 +13420,7 @@
         <v>1128.012498929999</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15365,7 +13453,7 @@
         <v>1114.735498929999</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15398,7 +13486,7 @@
         <v>1058.877998929999</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15431,7 +13519,7 @@
         <v>1039.418798929999</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15464,7 +13552,7 @@
         <v>1042.414098929999</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15497,7 +13585,7 @@
         <v>1042.414098929999</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15530,7 +13618,7 @@
         <v>946.693698929999</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15563,7 +13651,7 @@
         <v>946.8736989299989</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15596,7 +13684,7 @@
         <v>946.8736989299989</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15629,7 +13717,7 @@
         <v>946.8736989299989</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15662,7 +13750,7 @@
         <v>946.8736989299989</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15695,7 +13783,7 @@
         <v>947.1466989299989</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15728,7 +13816,7 @@
         <v>944.0508989299989</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15761,7 +13849,7 @@
         <v>944.0508989299989</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15794,7 +13882,7 @@
         <v>957.7809989299989</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15827,7 +13915,7 @@
         <v>957.1900989299988</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15860,7 +13948,7 @@
         <v>951.9760989299988</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15893,7 +13981,7 @@
         <v>952.3217989299987</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15926,7 +14014,7 @@
         <v>952.1717989299988</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15959,7 +14047,7 @@
         <v>950.6817989299988</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16025,7 +14113,7 @@
         <v>920.8878989299988</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -29126,11 +27214,17 @@
         <v>-921.0328655600017</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>67700</v>
+      </c>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29159,11 +27253,17 @@
         <v>-877.0033655600017</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>67550</v>
+      </c>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29192,11 +27292,17 @@
         <v>-877.0033655600017</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>67700</v>
+      </c>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29225,11 +27331,17 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>67700</v>
+      </c>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29258,11 +27370,17 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>67650</v>
+      </c>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29291,11 +27409,17 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>67650</v>
+      </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29324,11 +27448,17 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>67650</v>
+      </c>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29357,11 +27487,17 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>67550</v>
+      </c>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29390,11 +27526,17 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>67550</v>
+      </c>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29423,11 +27565,17 @@
         <v>-969.1386655600016</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>67550</v>
+      </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29456,11 +27604,17 @@
         <v>-982.6276655600017</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>67450</v>
+      </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29489,11 +27643,17 @@
         <v>-913.2017655600017</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>67400</v>
+      </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29522,11 +27682,17 @@
         <v>-912.3556655600017</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>67550</v>
+      </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29555,11 +27721,17 @@
         <v>-921.2673655600017</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>67700</v>
+      </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29588,11 +27760,17 @@
         <v>-921.2673655600017</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>67500</v>
+      </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29621,11 +27799,17 @@
         <v>-915.0937745100017</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>67500</v>
+      </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29654,11 +27838,17 @@
         <v>-915.7693745100017</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>67700</v>
+      </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29687,11 +27877,17 @@
         <v>-912.6378745100018</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>67650</v>
+      </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29720,11 +27916,17 @@
         <v>-912.6833612300018</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>67850</v>
+      </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29753,11 +27955,17 @@
         <v>-902.6215612300018</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>67800</v>
+      </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29786,11 +27994,17 @@
         <v>-920.8225612300018</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>67900</v>
+      </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29819,11 +28033,17 @@
         <v>-914.2241612300019</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>67700</v>
+      </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29852,11 +28072,17 @@
         <v>-921.0401612300019</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>67950</v>
+      </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29885,11 +28111,17 @@
         <v>-919.6392612300019</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>67750</v>
+      </c>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29918,11 +28150,17 @@
         <v>-926.608261230002</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>67850</v>
+      </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29951,11 +28189,17 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>67800</v>
+      </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29984,11 +28228,17 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>67700</v>
+      </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30017,11 +28267,17 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>67700</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30050,11 +28306,17 @@
         <v>-1005.504461230002</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>67700</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30083,11 +28345,17 @@
         <v>-1005.504461230002</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>67650</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30116,11 +28384,17 @@
         <v>-1003.890561230002</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>67650</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30149,11 +28423,17 @@
         <v>-990.280661230002</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>67700</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30182,11 +28462,17 @@
         <v>-990.280661230002</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>67800</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30215,17 +28501,23 @@
         <v>-995.387161230002</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>67800</v>
+      </c>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
       <c r="M846" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest LTC.xlsx
+++ b/BackTest/2019-10-28 BackTest LTC.xlsx
@@ -3718,10 +3718,14 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>66100</v>
+      </c>
+      <c r="J101" t="n">
+        <v>66100</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3751,11 +3755,19 @@
         <v>-575.5291851500006</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>66100</v>
+      </c>
+      <c r="J102" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3796,19 @@
         <v>-467.4536851500005</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>66100</v>
+      </c>
+      <c r="J103" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3837,19 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>66200</v>
+      </c>
+      <c r="J104" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3878,19 @@
         <v>-468.1690851500005</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>66100</v>
+      </c>
+      <c r="J105" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3919,19 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>66100</v>
+      </c>
+      <c r="J106" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3960,19 @@
         <v>-510.6555851500005</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>65950</v>
+      </c>
+      <c r="J107" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4001,19 @@
         <v>-509.1355851500005</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>65950</v>
+      </c>
+      <c r="J108" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4042,19 @@
         <v>-494.5588851500005</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>66050</v>
+      </c>
+      <c r="J109" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4083,19 @@
         <v>-493.6941851500005</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>66200</v>
+      </c>
+      <c r="J110" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4124,19 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J111" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4165,19 @@
         <v>-489.9779851500004</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>66400</v>
+      </c>
+      <c r="J112" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4206,19 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>66400</v>
+      </c>
+      <c r="J113" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4250,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4289,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4325,19 @@
         <v>-505.5678851500004</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J116" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4369,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4405,19 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>66400</v>
+      </c>
+      <c r="J118" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4446,19 @@
         <v>-505.1464851500004</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>66650</v>
+      </c>
+      <c r="J119" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4487,19 @@
         <v>-501.2377851500004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>66650</v>
+      </c>
+      <c r="J120" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4528,19 @@
         <v>-501.4377851500004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J121" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4569,19 @@
         <v>-579.4665851500005</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>66850</v>
+      </c>
+      <c r="J122" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4613,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4652,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4688,19 @@
         <v>-572.6295851500005</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>66700</v>
+      </c>
+      <c r="J125" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4771,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4807,19 @@
         <v>-570.5742851500005</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>66800</v>
+      </c>
+      <c r="J128" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4848,19 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>66800</v>
+      </c>
+      <c r="J129" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4889,19 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J130" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4930,19 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J131" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4971,19 @@
         <v>-568.9654851500005</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J132" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5012,19 @@
         <v>-568.7212851500005</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J133" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5053,19 @@
         <v>-574.6834851500006</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>67000</v>
+      </c>
+      <c r="J134" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5094,19 @@
         <v>-580.1243851500006</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>66850</v>
+      </c>
+      <c r="J135" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5135,19 @@
         <v>-577.9112851500006</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>66700</v>
+      </c>
+      <c r="J136" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5176,19 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>66900</v>
+      </c>
+      <c r="J137" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5217,19 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>66950</v>
+      </c>
+      <c r="J138" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5258,19 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>66950</v>
+      </c>
+      <c r="J139" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5299,19 @@
         <v>-539.9946851500006</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>66950</v>
+      </c>
+      <c r="J140" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5340,19 @@
         <v>-546.8316851500006</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>66950</v>
+      </c>
+      <c r="J141" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5381,19 @@
         <v>-562.3797851500005</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>66850</v>
+      </c>
+      <c r="J142" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5422,19 @@
         <v>-499.6666851500005</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>66800</v>
+      </c>
+      <c r="J143" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5463,19 @@
         <v>-499.7356851500006</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>67100</v>
+      </c>
+      <c r="J144" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5504,19 @@
         <v>-492.1509851500006</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>66950</v>
+      </c>
+      <c r="J145" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5545,19 @@
         <v>-506.2405851500006</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>67250</v>
+      </c>
+      <c r="J146" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5586,19 @@
         <v>-495.7200851500006</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J147" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5627,19 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J148" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5668,19 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>67100</v>
+      </c>
+      <c r="J149" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5709,19 @@
         <v>-518.0746851500005</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>67100</v>
+      </c>
+      <c r="J150" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5750,19 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>67100</v>
+      </c>
+      <c r="J151" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5791,19 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J152" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5832,19 @@
         <v>-514.0134851500005</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J153" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5873,19 @@
         <v>-531.5422851500006</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J154" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5914,19 @@
         <v>-531.5422851500006</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J155" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5955,19 @@
         <v>-477.0613851500005</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>67150</v>
+      </c>
+      <c r="J156" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5999,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6038,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6077,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6116,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6155,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6194,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6233,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6272,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6311,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6350,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6389,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6428,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6467,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6506,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6545,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6584,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6623,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6662,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6701,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6740,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6779,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6818,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6857,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6896,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6935,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6974,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7013,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7052,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7091,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7130,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7169,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7208,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7247,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7286,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7325,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7364,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7403,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7442,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7481,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7520,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7559,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7595,17 @@
         <v>122.2171148499993</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7634,17 @@
         <v>146.0252148499993</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7676,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7715,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7751,17 @@
         <v>151.3868148499994</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7790,17 @@
         <v>151.8952148499993</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7832,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7871,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7910,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7949,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7988,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +8027,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +8066,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +8102,17 @@
         <v>442.9865148499994</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +8141,17 @@
         <v>442.7865148499994</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +8180,17 @@
         <v>442.7865148499994</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +8219,17 @@
         <v>443.3894148499994</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +8258,17 @@
         <v>463.9284148499994</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8297,17 @@
         <v>471.6928148499994</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +8336,17 @@
         <v>471.4395795899994</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8378,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8417,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8456,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +8492,17 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +8531,17 @@
         <v>493.4583795899994</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +8570,17 @@
         <v>529.1049795899994</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +8609,17 @@
         <v>527.2749795899994</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8648,17 @@
         <v>524.9788795899993</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8690,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8726,17 @@
         <v>465.3283795899994</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8768,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8804,17 @@
         <v>477.0288795899994</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8843,17 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8882,17 @@
         <v>476.7408795899994</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8921,17 @@
         <v>452.2280795899994</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8960,17 @@
         <v>252.9899795899994</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +9002,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +9041,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +9080,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +9119,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +9158,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +9197,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +9236,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +9275,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9314,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9353,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +9392,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9431,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +9470,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +9509,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +9587,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9626,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9665,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9704,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9743,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9782,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9821,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9860,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9899,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9938,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +9977,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8968,8 +10016,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9001,8 +10055,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9034,8 +10094,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +10133,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9100,8 +10172,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9133,8 +10211,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9166,8 +10250,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9199,8 +10289,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9232,8 +10328,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9265,8 +10367,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9298,8 +10406,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9331,8 +10445,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +10484,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +10523,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +10562,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +10601,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +10640,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +10679,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +10718,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +10757,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +10796,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +10835,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +10874,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +10913,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10952,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10991,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +11030,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,15 +11066,23 @@
         <v>1274.597831</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>66100</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>1.07518154311649</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1.025037936267071</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9889,7 +11107,7 @@
         <v>1299.38610179</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +11140,7 @@
         <v>2057.309730999999</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +11173,7 @@
         <v>1881.102913149999</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +11206,7 @@
         <v>1960.70521315</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +11239,7 @@
         <v>1747.542513149999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +11272,7 @@
         <v>1658.415713149999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +11305,7 @@
         <v>1699.58201315</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +11338,7 @@
         <v>1699.58201315</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +11371,7 @@
         <v>1726.004413149999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +11404,7 @@
         <v>1616.937413149999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +11437,7 @@
         <v>1629.302313149999</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +11470,7 @@
         <v>1606.22961315</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +11503,7 @@
         <v>1615.01011315</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +11536,7 @@
         <v>1565.01011315</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +11569,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +11602,7 @@
         <v>1565.428113149999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +11635,7 @@
         <v>1565.813113149999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +11668,7 @@
         <v>1456.177513149999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +11701,7 @@
         <v>1551.486513149999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +11734,7 @@
         <v>1512.997913149999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +11767,7 @@
         <v>1512.163813149999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +11800,7 @@
         <v>1505.88531315</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +11833,7 @@
         <v>1501.414613149999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +11866,7 @@
         <v>1492.536313149999</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +11899,7 @@
         <v>1523.494913149999</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +11932,7 @@
         <v>1384.665313149999</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +11965,7 @@
         <v>1244.725513149999</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +11998,7 @@
         <v>1242.678313149999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -27214,17 +28432,11 @@
         <v>-921.0328655600017</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27253,17 +28465,11 @@
         <v>-877.0033655600017</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27292,17 +28498,11 @@
         <v>-877.0033655600017</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27331,17 +28531,11 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27370,17 +28564,11 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27409,17 +28597,11 @@
         <v>-878.5133655600017</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27448,17 +28630,11 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27487,17 +28663,11 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27526,17 +28696,11 @@
         <v>-888.5302655600017</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27565,17 +28729,11 @@
         <v>-969.1386655600016</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27604,17 +28762,11 @@
         <v>-982.6276655600017</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>67450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27643,17 +28795,11 @@
         <v>-913.2017655600017</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>67400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27682,17 +28828,11 @@
         <v>-912.3556655600017</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>67550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27721,17 +28861,11 @@
         <v>-921.2673655600017</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27760,17 +28894,11 @@
         <v>-921.2673655600017</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27799,17 +28927,11 @@
         <v>-915.0937745100017</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27838,17 +28960,11 @@
         <v>-915.7693745100017</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27877,17 +28993,11 @@
         <v>-912.6378745100018</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27916,17 +29026,11 @@
         <v>-912.6833612300018</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>67850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27955,17 +29059,11 @@
         <v>-902.6215612300018</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>67800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27994,17 +29092,11 @@
         <v>-920.8225612300018</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>67900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28033,17 +29125,11 @@
         <v>-914.2241612300019</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28072,17 +29158,11 @@
         <v>-921.0401612300019</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>67950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28111,17 +29191,11 @@
         <v>-919.6392612300019</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>67750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28150,17 +29224,11 @@
         <v>-926.608261230002</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>67850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28189,17 +29257,11 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>67800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28228,17 +29290,11 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28267,17 +29323,11 @@
         <v>-943.693461230002</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28306,17 +29356,11 @@
         <v>-1005.504461230002</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28345,17 +29389,11 @@
         <v>-1005.504461230002</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28384,17 +29422,11 @@
         <v>-1003.890561230002</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28423,17 +29455,11 @@
         <v>-990.280661230002</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>67700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28462,17 +29488,11 @@
         <v>-990.280661230002</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>67800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28501,17 +29521,11 @@
         <v>-995.387161230002</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>67800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
